--- a/output/ITAÚ_17420064000144.xlsx
+++ b/output/ITAÚ_17420064000144.xlsx
@@ -1395,10 +1395,10 @@
         <v>44165</v>
       </c>
       <c r="B92">
-        <v>1.0154855</v>
+        <v>1.0136182</v>
       </c>
       <c r="C92">
-        <v>0.00396262990587859</v>
+        <v>0.003032482098403344</v>
       </c>
     </row>
   </sheetData>

--- a/output/ITAÚ_17420064000144.xlsx
+++ b/output/ITAÚ_17420064000144.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ITAÚ MULTIMERCADO LONG AND SHORT 30 FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41425</v>
       </c>
@@ -411,994 +405,724 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41455</v>
       </c>
       <c r="B3">
         <v>0.006184699999999932</v>
       </c>
-      <c r="C3">
-        <v>0.006184699999999932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41486</v>
       </c>
       <c r="B4">
-        <v>0.01165040000000017</v>
-      </c>
-      <c r="C4">
         <v>0.005432104065983268</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41517</v>
       </c>
       <c r="B5">
-        <v>0.01330300000000006</v>
-      </c>
-      <c r="C5">
         <v>0.001633568276155462</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41547</v>
       </c>
       <c r="B6">
-        <v>0.01477419999999996</v>
-      </c>
-      <c r="C6">
         <v>0.001451885566311262</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41578</v>
       </c>
       <c r="B7">
-        <v>0.0216464999999999</v>
-      </c>
-      <c r="C7">
         <v>0.006772245490671569</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41608</v>
       </c>
       <c r="B8">
-        <v>0.03442579999999995</v>
-      </c>
-      <c r="C8">
         <v>0.01250853401837126</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41639</v>
       </c>
       <c r="B9">
-        <v>0.04653949999999996</v>
-      </c>
-      <c r="C9">
         <v>0.01171055478314642</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41670</v>
       </c>
       <c r="B10">
-        <v>0.05264900000000017</v>
-      </c>
-      <c r="C10">
         <v>0.005837811186295561</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41698</v>
       </c>
       <c r="B11">
-        <v>0.05537600000000009</v>
-      </c>
-      <c r="C11">
         <v>0.002590607125452005</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41729</v>
       </c>
       <c r="B12">
-        <v>0.05154799999999993</v>
-      </c>
-      <c r="C12">
         <v>-0.003627143311957237</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41759</v>
       </c>
       <c r="B13">
-        <v>0.05592279999999983</v>
-      </c>
-      <c r="C13">
         <v>0.004160342656730709</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41790</v>
       </c>
       <c r="B14">
-        <v>0.06665080000000012</v>
-      </c>
-      <c r="C14">
         <v>0.01015983365450612</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41820</v>
       </c>
       <c r="B15">
-        <v>0.07687920000000004</v>
-      </c>
-      <c r="C15">
         <v>0.009589267640356169</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41851</v>
       </c>
       <c r="B16">
-        <v>0.0890496999999999</v>
-      </c>
-      <c r="C16">
         <v>0.01130163903249293</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41882</v>
       </c>
       <c r="B17">
-        <v>0.101172</v>
-      </c>
-      <c r="C17">
         <v>0.01113108061092172</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41912</v>
       </c>
       <c r="B18">
-        <v>0.1229678000000001</v>
-      </c>
-      <c r="C18">
         <v>0.01979327480175663</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41943</v>
       </c>
       <c r="B19">
-        <v>0.1324982000000001</v>
-      </c>
-      <c r="C19">
         <v>0.008486797217159836</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41973</v>
       </c>
       <c r="B20">
-        <v>0.1467635</v>
-      </c>
-      <c r="C20">
         <v>0.01259631141135586</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42004</v>
       </c>
       <c r="B21">
-        <v>0.166112</v>
-      </c>
-      <c r="C21">
         <v>0.0168722670367516</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42035</v>
       </c>
       <c r="B22">
-        <v>0.1628643999999999</v>
-      </c>
-      <c r="C22">
         <v>-0.002784981202491821</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42063</v>
       </c>
       <c r="B23">
-        <v>0.1635422</v>
-      </c>
-      <c r="C23">
         <v>0.0005828710553010819</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42094</v>
       </c>
       <c r="B24">
-        <v>0.1809056</v>
-      </c>
-      <c r="C24">
         <v>0.01492287946238657</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42124</v>
       </c>
       <c r="B25">
-        <v>0.1778328999999998</v>
-      </c>
-      <c r="C25">
         <v>-0.002601986136741341</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42155</v>
       </c>
       <c r="B26">
-        <v>0.1876799</v>
-      </c>
-      <c r="C26">
         <v>0.008360269100990525</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42185</v>
       </c>
       <c r="B27">
-        <v>0.2098894</v>
-      </c>
-      <c r="C27">
         <v>0.01869990390508414</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42216</v>
       </c>
       <c r="B28">
-        <v>0.2351622</v>
-      </c>
-      <c r="C28">
         <v>0.02088852088463611</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42247</v>
       </c>
       <c r="B29">
-        <v>0.2564245000000001</v>
-      </c>
-      <c r="C29">
         <v>0.01721417640533374</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42277</v>
       </c>
       <c r="B30">
-        <v>0.2681007</v>
-      </c>
-      <c r="C30">
         <v>0.009293196686311012</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42308</v>
       </c>
       <c r="B31">
-        <v>0.2729017</v>
-      </c>
-      <c r="C31">
         <v>0.003785976933850854</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42338</v>
       </c>
       <c r="B32">
-        <v>0.2859045999999998</v>
-      </c>
-      <c r="C32">
         <v>0.01021516429744729</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42369</v>
       </c>
       <c r="B33">
-        <v>0.3020273</v>
-      </c>
-      <c r="C33">
         <v>0.01253802187191821</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42400</v>
       </c>
       <c r="B34">
-        <v>0.3115144000000001</v>
-      </c>
-      <c r="C34">
         <v>0.007286406360296871</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42429</v>
       </c>
       <c r="B35">
-        <v>0.3204815999999999</v>
-      </c>
-      <c r="C35">
         <v>0.00683728672746553</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42460</v>
       </c>
       <c r="B36">
-        <v>0.3326262</v>
-      </c>
-      <c r="C36">
         <v>0.009197098997820286</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42490</v>
       </c>
       <c r="B37">
-        <v>0.3489169000000001</v>
-      </c>
-      <c r="C37">
         <v>0.01222450826795995</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42521</v>
       </c>
       <c r="B38">
-        <v>0.3536047999999998</v>
-      </c>
-      <c r="C38">
         <v>0.003475306744247675</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42551</v>
       </c>
       <c r="B39">
-        <v>0.3753467000000001</v>
-      </c>
-      <c r="C39">
         <v>0.01606222141056257</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42582</v>
       </c>
       <c r="B40">
-        <v>0.3997488</v>
-      </c>
-      <c r="C40">
         <v>0.01774250812540568</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42613</v>
       </c>
       <c r="B41">
-        <v>0.4135664999999999</v>
-      </c>
-      <c r="C41">
         <v>0.009871556953647609</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42643</v>
       </c>
       <c r="B42">
-        <v>0.4344988999999999</v>
-      </c>
-      <c r="C42">
         <v>0.01480821737074267</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42674</v>
       </c>
       <c r="B43">
-        <v>0.4659871</v>
-      </c>
-      <c r="C43">
         <v>0.02195066165613646</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42704</v>
       </c>
       <c r="B44">
-        <v>0.4758467</v>
-      </c>
-      <c r="C44">
         <v>0.006725570777532663</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42735</v>
       </c>
       <c r="B45">
-        <v>0.4927683999999999</v>
-      </c>
-      <c r="C45">
         <v>0.01146575724971965</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42766</v>
       </c>
       <c r="B46">
-        <v>0.5232808</v>
-      </c>
-      <c r="C46">
         <v>0.0204401432934942</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42794</v>
       </c>
       <c r="B47">
-        <v>0.5398675000000002</v>
-      </c>
-      <c r="C47">
         <v>0.01088880001638581</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42825</v>
       </c>
       <c r="B48">
-        <v>0.5621515000000001</v>
-      </c>
-      <c r="C48">
         <v>0.01447137497219719</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42855</v>
       </c>
       <c r="B49">
-        <v>0.5809424999999999</v>
-      </c>
-      <c r="C49">
         <v>0.01202892293097046</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42886</v>
       </c>
       <c r="B50">
-        <v>0.5895176</v>
-      </c>
-      <c r="C50">
         <v>0.005424042936412965</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42916</v>
       </c>
       <c r="B51">
-        <v>0.6094179</v>
-      </c>
-      <c r="C51">
         <v>0.01251971038257138</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42947</v>
       </c>
       <c r="B52">
-        <v>0.6256177000000001</v>
-      </c>
-      <c r="C52">
         <v>0.01006562683315515</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42978</v>
       </c>
       <c r="B53">
-        <v>0.6485723000000001</v>
-      </c>
-      <c r="C53">
         <v>0.01412054014913844</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43008</v>
       </c>
       <c r="B54">
-        <v>0.6668955000000001</v>
-      </c>
-      <c r="C54">
         <v>0.01111458684584221</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43039</v>
       </c>
       <c r="B55">
-        <v>0.6764589000000001</v>
-      </c>
-      <c r="C55">
         <v>0.005737252275262561</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43069</v>
       </c>
       <c r="B56">
-        <v>0.6780691000000001</v>
-      </c>
-      <c r="C56">
         <v>0.0009604768718158851</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43100</v>
       </c>
       <c r="B57">
-        <v>0.6812336999999999</v>
-      </c>
-      <c r="C57">
         <v>0.001885857978077166</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43131</v>
       </c>
       <c r="B58">
-        <v>0.6981929999999998</v>
-      </c>
-      <c r="C58">
         <v>0.01008741378429412</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43159</v>
       </c>
       <c r="B59">
-        <v>0.7159738</v>
-      </c>
-      <c r="C59">
         <v>0.01047042356198635</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43190</v>
       </c>
       <c r="B60">
-        <v>0.7449397999999998</v>
-      </c>
-      <c r="C60">
         <v>0.01688021110811833</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43220</v>
       </c>
       <c r="B61">
-        <v>0.7795483999999999</v>
-      </c>
-      <c r="C61">
         <v>0.01983369282997627</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43251</v>
       </c>
       <c r="B62">
-        <v>0.7809881000000001</v>
-      </c>
-      <c r="C62">
         <v>0.0008090254808468256</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43281</v>
       </c>
       <c r="B63">
-        <v>0.8194994999999998</v>
-      </c>
-      <c r="C63">
         <v>0.02162361444189309</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43312</v>
       </c>
       <c r="B64">
-        <v>0.8339251000000001</v>
-      </c>
-      <c r="C64">
         <v>0.007928334138042059</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43343</v>
       </c>
       <c r="B65">
-        <v>0.824756</v>
-      </c>
-      <c r="C65">
         <v>-0.004999713456127486</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43373</v>
       </c>
       <c r="B66">
-        <v>0.8221996</v>
-      </c>
-      <c r="C66">
         <v>-0.001400954428975698</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43404</v>
       </c>
       <c r="B67">
-        <v>0.8789211000000001</v>
-      </c>
-      <c r="C67">
         <v>0.03112803888223881</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43434</v>
       </c>
       <c r="B68">
-        <v>0.8935711999999998</v>
-      </c>
-      <c r="C68">
         <v>0.007797080995045391</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43465</v>
       </c>
       <c r="B69">
-        <v>0.9395513999999998</v>
-      </c>
-      <c r="C69">
         <v>0.02428226622796115</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43496</v>
       </c>
       <c r="B70">
-        <v>0.9445495999999998</v>
-      </c>
-      <c r="C70">
         <v>0.002576987647762152</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43524</v>
       </c>
       <c r="B71">
-        <v>0.9557787999999998</v>
-      </c>
-      <c r="C71">
         <v>0.005774704846819079</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43555</v>
       </c>
       <c r="B72">
-        <v>0.9536321999999999</v>
-      </c>
-      <c r="C72">
         <v>-0.001097567884466244</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43585</v>
       </c>
       <c r="B73">
-        <v>0.9646591</v>
-      </c>
-      <c r="C73">
         <v>0.005644307050221675</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43616</v>
       </c>
       <c r="B74">
-        <v>0.9799981</v>
-      </c>
-      <c r="C74">
         <v>0.007807461355509471</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43646</v>
       </c>
       <c r="B75">
-        <v>1.0040474</v>
-      </c>
-      <c r="C75">
         <v>0.01214612276648142</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43677</v>
       </c>
       <c r="B76">
-        <v>1.0334745</v>
-      </c>
-      <c r="C76">
         <v>0.01468383432447751</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43708</v>
       </c>
       <c r="B77">
-        <v>1.0532465</v>
-      </c>
-      <c r="C77">
         <v>0.009723259376992255</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43738</v>
       </c>
       <c r="B78">
-        <v>1.0387179</v>
-      </c>
-      <c r="C78">
         <v>-0.007075916116257686</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43769</v>
       </c>
       <c r="B79">
-        <v>1.0371901</v>
-      </c>
-      <c r="C79">
         <v>-0.0007493925471493412</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43799</v>
       </c>
       <c r="B80">
-        <v>1.0602362</v>
-      </c>
-      <c r="C80">
         <v>0.01131268996447599</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43830</v>
       </c>
       <c r="B81">
-        <v>1.1030726</v>
-      </c>
-      <c r="C81">
         <v>0.0207919849190108</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43861</v>
       </c>
       <c r="B82">
-        <v>1.1433905</v>
-      </c>
-      <c r="C82">
         <v>0.01917095016120696</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43890</v>
       </c>
       <c r="B83">
-        <v>1.1287287</v>
-      </c>
-      <c r="C83">
         <v>-0.006840470740166027</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43921</v>
       </c>
       <c r="B84">
-        <v>1.0483382</v>
-      </c>
-      <c r="C84">
         <v>-0.03776455872465101</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43951</v>
       </c>
       <c r="B85">
-        <v>1.0269115</v>
-      </c>
-      <c r="C85">
         <v>-0.01046052844203171</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43982</v>
       </c>
       <c r="B86">
-        <v>1.0215222</v>
-      </c>
-      <c r="C86">
         <v>-0.002658872871361018</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>44012</v>
       </c>
       <c r="B87">
-        <v>1.048588</v>
-      </c>
-      <c r="C87">
         <v>0.01338882155239252</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>44043</v>
       </c>
       <c r="B88">
-        <v>1.051916</v>
-      </c>
-      <c r="C88">
         <v>0.001624533581178644</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>44074</v>
       </c>
       <c r="B89">
-        <v>1.0527457</v>
-      </c>
-      <c r="C89">
         <v>0.0004043537844629075</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>44104</v>
       </c>
       <c r="B90">
-        <v>1.0271311</v>
-      </c>
-      <c r="C90">
         <v>-0.01247821393560822</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>44135</v>
       </c>
       <c r="B91">
-        <v>1.0075304</v>
-      </c>
-      <c r="C91">
         <v>-0.009669182225066852</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>44165</v>
       </c>
       <c r="B92">
-        <v>1.0136182</v>
-      </c>
-      <c r="C92">
-        <v>0.003032482098403344</v>
+        <v>0.002247587383982008</v>
       </c>
     </row>
   </sheetData>
